--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -361,9 +361,6 @@
     <t>TowerAOE</t>
   </si>
   <si>
-    <t>1001-2</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -410,9 +407,6 @@
   </si>
   <si>
     <t>步兵</t>
-  </si>
-  <si>
-    <t>1001-1</t>
   </si>
   <si>
     <t>monster_1</t>
@@ -566,6 +560,169 @@
         <scheme val="minor"/>
       </rPr>
       <t>ist</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAttack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAttack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDefence</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDefence</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HpLayer</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAngler</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageReduction</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageBonus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dodge</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>属性I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildCost</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DieDrop</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadIcon</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_2002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>npc_200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -597,166 +754,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAttack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAttack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDefence</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDefence</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpLayer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxAngler</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageReduction</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageBonus</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dodge</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NpcType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>属性I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResName</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>P</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildTime</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuildCost</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DieDrop</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skills</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeadIcon</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttrId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_2002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>npc_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
+    <t>1-2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -932,18 +934,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,6 +970,18 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1316,7 +1318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1337,476 +1339,476 @@
     <col min="14" max="14" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" ht="50.1" customHeight="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="50.1" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="18" t="s">
+      <c r="J2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="7">
+        <v>1001</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="7">
+        <v>100</v>
+      </c>
+      <c r="I5" s="7">
         <v>10</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="J5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="19" t="s">
+      <c r="M5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7">
+        <v>1003</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7">
+        <v>100</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>10001</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7">
+        <v>100</v>
+      </c>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="9">
+        <v>2001</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="9">
+        <v>10001</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="9">
+        <v>500</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="9">
+        <v>2002</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>10001</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9">
+        <v>500</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>10001</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="18" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="12" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A5" s="11">
-        <v>1001</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11">
-        <v>2</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>10001</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="11">
-        <v>100</v>
-      </c>
-      <c r="I5" s="11">
-        <v>10</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="16" t="s">
+      <c r="H11" s="9">
+        <v>500</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="9"/>
+      <c r="L11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="11">
-        <v>1002</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="11">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>10001</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="11">
-        <v>100</v>
-      </c>
-      <c r="I6" s="11">
-        <v>10</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>10001</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="11">
-        <v>100</v>
-      </c>
-      <c r="I7" s="11">
-        <v>10</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="11">
-        <v>1004</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>10001</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="11">
-        <v>100</v>
-      </c>
-      <c r="I8" s="11">
-        <v>10</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="13">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>10001</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="13">
-        <v>500</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N9" s="14" t="s">
+      <c r="M11" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="13">
-        <v>2002</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-      <c r="E10" s="13">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>10001</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="13">
-        <v>500</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" s="14" t="s">
+      <c r="N11" s="10" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="13">
-        <v>2003</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>1</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1</v>
-      </c>
-      <c r="F11" s="13">
-        <v>10001</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="13">
-        <v>500</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1849,204 +1851,204 @@
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="10" customFormat="1" ht="16.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="16.5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="M1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="8" t="s">
+      <c r="O1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="P1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="K2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="10" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O2" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="10" customFormat="1" ht="16.5">
-      <c r="A3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="L3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="M3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="P3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="Q3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="10" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>48</v>
+    </row>
+    <row r="4" spans="1:17" s="6" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2069,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -2122,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -2175,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
@@ -2228,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -2321,137 +2323,137 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="A1" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="B5" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NPC表" sheetId="4" r:id="rId1"/>
@@ -197,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
   <si>
     <t>编号</t>
   </si>
@@ -759,6 +759,18 @@
   </si>
   <si>
     <t>1-1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>格子大小</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeSize</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1314,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1331,15 +1343,15 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="25.5" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="16.375" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="9" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="13.875" customWidth="1"/>
+    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="15" max="15" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="14" customFormat="1" ht="50.1" customHeight="1">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="50.1" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1365,25 +1377,28 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>65</v>
       </c>
@@ -1409,25 +1424,28 @@
         <v>91</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1453,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -1455,23 +1473,26 @@
       <c r="I3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="N3" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="O3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -1514,8 +1535,11 @@
       <c r="N4" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="19.5" customHeight="1">
+      <c r="O4" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1">
       <c r="A5" s="7">
         <v>1001</v>
       </c>
@@ -1541,23 +1565,26 @@
         <v>100</v>
       </c>
       <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
         <v>10</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
@@ -1583,23 +1610,26 @@
         <v>100</v>
       </c>
       <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
         <v>10</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="7"/>
+      <c r="M6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="7">
         <v>1003</v>
       </c>
@@ -1625,23 +1655,26 @@
         <v>100</v>
       </c>
       <c r="I7" s="7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
         <v>10</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7">
         <v>1004</v>
       </c>
@@ -1667,23 +1700,26 @@
         <v>100</v>
       </c>
       <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
         <v>10</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="7"/>
+      <c r="M8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="O8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="9">
         <v>2001</v>
       </c>
@@ -1709,25 +1745,28 @@
         <v>500</v>
       </c>
       <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K9" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="M9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9">
         <v>2002</v>
       </c>
@@ -1753,23 +1792,26 @@
         <v>500</v>
       </c>
       <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="K10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="9"/>
+      <c r="M10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9">
         <v>2003</v>
       </c>
@@ -1795,26 +1837,29 @@
         <v>500</v>
       </c>
       <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
         <v>0</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="K11" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="10" t="s">
+      <c r="N11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="10" t="s">
+      <c r="O11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:N4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:O4">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1831,9 +1876,9 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2056,13 +2101,13 @@
         <v>10001</v>
       </c>
       <c r="B5" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -2109,13 +2154,13 @@
         <v>10002</v>
       </c>
       <c r="B6" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -2165,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -2218,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="NPC表" sheetId="4" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t>编号</t>
   </si>
@@ -771,6 +771,26 @@
   </si>
   <si>
     <t>NodeSize</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>墙壁，组织外敌入侵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wall_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1326,11 +1346,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M5" sqref="M5"/>
+      <selection pane="topRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1719,59 +1739,57 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7">
+        <v>1005</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
         <v>10001</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="9">
-        <v>500</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>35</v>
+      <c r="G9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="7">
+        <v>100</v>
+      </c>
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1786,7 +1804,7 @@
         <v>10001</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="9">
         <v>500</v>
@@ -1800,23 +1818,25 @@
       <c r="K10" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L10" s="9"/>
+      <c r="L10" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="M10" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="9">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -1831,7 +1851,7 @@
         <v>10001</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H11" s="9">
         <v>500</v>
@@ -1853,6 +1873,51 @@
         <v>37</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9">
+        <v>10001</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="9">
+        <v>500</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="9"/>
+      <c r="M12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1876,7 +1941,7 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NPC表" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,24 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>塔</t>
+          <t xml:space="preserve">塔
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普通建筑</t>
         </r>
       </text>
     </comment>
@@ -305,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
   <si>
     <t>编号</t>
   </si>
@@ -1348,9 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1774,9 +1791,7 @@
         <v>103</v>
       </c>
       <c r="L9" s="7"/>
-      <c r="M9" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="M9" s="12"/>
       <c r="N9" s="8" t="s">
         <v>112</v>
       </c>
@@ -1941,9 +1956,9 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2199,13 +2214,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P5" s="3">
         <v>1</v>
@@ -2252,13 +2267,13 @@
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P6" s="3">
         <v>1</v>
@@ -2305,13 +2320,13 @@
         <v>1</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P7" s="3">
         <v>1</v>
@@ -2358,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P8" s="3">
         <v>1</v>

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670"/>
   </bookViews>
   <sheets>
     <sheet name="NPC表" sheetId="4" r:id="rId1"/>
@@ -1365,9 +1365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1602,7 +1602,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="7">
         <v>10</v>
@@ -1647,7 +1647,7 @@
         <v>100</v>
       </c>
       <c r="I6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J6" s="7">
         <v>10</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="I7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="7">
         <v>10</v>
@@ -1737,7 +1737,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="7">
         <v>10</v>
@@ -1956,9 +1956,9 @@
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2187,7 +2187,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -2240,7 +2240,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -2293,7 +2293,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>100</v>
       </c>
       <c r="D8" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -1367,7 +1367,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I12" sqref="I12"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1599,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="H5" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I5" s="7">
         <v>3</v>
@@ -1644,7 +1644,7 @@
         <v>22</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I6" s="7">
         <v>3</v>
@@ -1689,7 +1689,7 @@
         <v>26</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I7" s="7">
         <v>3</v>
@@ -1734,7 +1734,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I8" s="7">
         <v>3</v>
@@ -1958,7 +1958,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2205,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>

--- a/Client/Excel/N_NPC.xlsx
+++ b/Client/Excel/N_NPC.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UntiyWorkSpace\MyGame\Client\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F29507-314F-494B-89F7-3D1EAC5293D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24885" windowHeight="11670"/>
+    <workbookView minimized="1" xWindow="705" yWindow="705" windowWidth="16200" windowHeight="9398" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NPC表" sheetId="4" r:id="rId1"/>
@@ -12,17 +18,17 @@
     <sheet name="config" sheetId="2" r:id="rId3"/>
     <sheet name="备注" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,6 +52,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">怪物
@@ -63,6 +70,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">塔
@@ -80,13 +88,32 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>普通建筑</t>
+          <t xml:space="preserve">普通建筑
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英雄</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -110,6 +137,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">黑铁
@@ -127,6 +155,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">白银
@@ -144,6 +173,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">黄金
@@ -161,6 +191,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">贴钻
@@ -168,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -192,6 +223,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>与</t>
@@ -208,13 +240,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>表属性对应</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -238,6 +271,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>道具</t>
@@ -254,6 +288,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>道具数量</t>
@@ -269,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -293,6 +328,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">掉落道具
@@ -310,6 +346,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">死亡后繁衍出新的怪物
@@ -322,7 +359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="131">
   <si>
     <t>编号</t>
   </si>
@@ -375,9 +412,6 @@
     <t>极光塔</t>
   </si>
   <si>
-    <t>TowerAOE</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -390,9 +424,6 @@
     <t>法术塔</t>
   </si>
   <si>
-    <t>TowerBeam</t>
-  </si>
-  <si>
     <t>TowerIcon2</t>
   </si>
   <si>
@@ -402,9 +433,6 @@
     <t>辅助塔</t>
   </si>
   <si>
-    <t>TowerFlame</t>
-  </si>
-  <si>
     <t>TowerIcon3</t>
   </si>
   <si>
@@ -412,9 +440,6 @@
   </si>
   <si>
     <t>资源塔</t>
-  </si>
-  <si>
-    <t>TowerResource</t>
   </si>
   <si>
     <t>TowerIcon4</t>
@@ -716,31 +741,6 @@
   </si>
   <si>
     <t>AttrId</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_2001</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_2002</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>npc_200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +763,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,27 +800,126 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Wall_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>monster_2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>wall_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>逍遥子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>和尚</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>琵琶仙子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧血剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>人物角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/TowerAOE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/TowerBeam</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/TowerFlame</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/TowerResource</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/Wall_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/npc_2001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/npc_2002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPC/npc_2003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/1_xinggongmen_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/2_jingangmen_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/3_qingyunmen_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero/4_penglaimen_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010,40011,40012,40013</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40020,40021,40022,40023</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40030,40031,40032,40033</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>40040,40041,40042,40043</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,6 +931,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -848,6 +949,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -881,7 +983,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +1023,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,7 +1078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1020,6 +1128,39 @@
     <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1035,7 +1176,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1060,7 +1201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1074,12 +1215,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,7 +1265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,9 +1297,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1187,6 +1349,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1362,40 +1542,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="32.1328125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="10" width="13.625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" customWidth="1"/>
+    <col min="7" max="7" width="25.46484375" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="9" max="10" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.46484375" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
-    <col min="15" max="15" width="20.625" customWidth="1"/>
+    <col min="13" max="13" width="32.33203125" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" customWidth="1"/>
+    <col min="15" max="15" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="14" customFormat="1" ht="50.1" customHeight="1">
+    <row r="1" spans="1:15" s="14" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
@@ -1405,7 +1585,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>5</v>
@@ -1414,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>7</v>
@@ -1435,54 +1615,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="I2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="15" t="s">
+      <c r="K2" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="M2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="O2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="3" spans="1:15" s="14" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
@@ -1490,7 +1670,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>13</v>
@@ -1514,10 +1694,10 @@
         <v>13</v>
       </c>
       <c r="K3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="M3" s="14" t="s">
         <v>15</v>
@@ -1529,54 +1709,54 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1001</v>
       </c>
@@ -1595,8 +1775,8 @@
       <c r="F5" s="7">
         <v>10001</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
+      <c r="G5" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="H5" s="7">
         <v>500</v>
@@ -1608,25 +1788,25 @@
         <v>10</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="6" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>1002</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="7">
         <v>2</v>
@@ -1640,8 +1820,8 @@
       <c r="F6" s="7">
         <v>10001</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
+      <c r="G6" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="H6" s="7">
         <v>500</v>
@@ -1653,25 +1833,25 @@
         <v>10</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>1003</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>
@@ -1685,8 +1865,8 @@
       <c r="F7" s="7">
         <v>10001</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>26</v>
+      <c r="G7" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="H7" s="7">
         <v>500</v>
@@ -1698,25 +1878,25 @@
         <v>10</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1004</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1730,8 +1910,8 @@
       <c r="F8" s="7">
         <v>10001</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>30</v>
+      <c r="G8" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
@@ -1743,25 +1923,25 @@
         <v>10</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>1005</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -1775,8 +1955,8 @@
       <c r="F9" s="7">
         <v>10001</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>110</v>
+      <c r="G9" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>100</v>
@@ -1788,23 +1968,23 @@
         <v>10</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="12"/>
       <c r="N9" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="10" customFormat="1" ht="27.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2001</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C10" s="9">
         <v>1</v>
@@ -1819,7 +1999,7 @@
         <v>10001</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H10" s="9">
         <v>500</v>
@@ -1831,27 +2011,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="10" customFormat="1" ht="26.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>2002</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9">
         <v>1</v>
@@ -1866,7 +2046,7 @@
         <v>10001</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="H11" s="9">
         <v>500</v>
@@ -1878,68 +2058,244 @@
         <v>0</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>2003</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="B12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
         <v>10001</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="9">
+      <c r="G12" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="18">
         <v>500</v>
       </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" s="10" t="s">
+      <c r="K12" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="18"/>
+      <c r="M12" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>4001</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="21">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21">
+        <v>1</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>10004</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="21">
+        <v>1</v>
+      </c>
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>40</v>
+      <c r="O13" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>4002</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="21">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>10004</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="23" customFormat="1" ht="22.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>4003</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="21">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3</v>
+      </c>
+      <c r="F15" s="21">
+        <v>10004</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="21">
+        <v>1</v>
+      </c>
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="23" customFormat="1" ht="29.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>4004</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="21">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3</v>
+      </c>
+      <c r="F16" s="21">
+        <v>10004</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="21">
+        <v>1</v>
+      </c>
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:O4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:O4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1950,133 +2306,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" style="2" customWidth="1"/>
     <col min="3" max="4" width="17" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.125" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.1328125" style="2" hidden="1" customWidth="1"/>
     <col min="8" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.46484375" style="2" customWidth="1"/>
     <col min="11" max="16" width="17" style="2" customWidth="1"/>
     <col min="17" max="17" width="23" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="6" customFormat="1" ht="16.5">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="M2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="6" customFormat="1" ht="16.5">
+    </row>
+    <row r="3" spans="1:17" s="6" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
@@ -2126,57 +2482,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="6" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:17" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
@@ -2187,7 +2543,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -2196,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3">
         <v>10</v>
@@ -2205,7 +2561,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
@@ -2229,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>10002</v>
       </c>
@@ -2240,7 +2596,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="3">
         <v>10</v>
@@ -2249,7 +2605,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H6" s="3">
         <v>10</v>
@@ -2258,7 +2614,7 @@
         <v>100</v>
       </c>
       <c r="J6" s="3">
-        <v>500</v>
+        <v>50000</v>
       </c>
       <c r="K6" s="3">
         <v>1</v>
@@ -2282,18 +2638,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10003</v>
       </c>
       <c r="B7" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3">
         <v>10</v>
@@ -2302,7 +2658,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
@@ -2335,18 +2691,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>10004</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C8" s="3">
         <v>100</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -2355,7 +2711,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3">
         <v>10</v>
@@ -2388,23 +2744,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:Q4 A4:F4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:Q4 A4:F4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"客户端+服务器,都不用,客户端,服务器"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2414,7 +2770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -2425,10 +2781,10 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="36.73046875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.73046875" style="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -2438,147 +2794,147 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="5" spans="1:7">
+        <v>47</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
